--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Vipr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,19 +534,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.152977553281711</v>
+        <v>0.1847786666666667</v>
       </c>
       <c r="H2">
-        <v>0.152977553281711</v>
+        <v>0.5543360000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.26079376281999</v>
+        <v>0.345887</v>
       </c>
       <c r="N2">
-        <v>2.26079376281999</v>
+        <v>1.037661</v>
       </c>
       <c r="O2">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="P2">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="Q2">
-        <v>0.3458506983107549</v>
+        <v>0.06391253867733333</v>
       </c>
       <c r="R2">
-        <v>0.3458506983107549</v>
+        <v>0.575212848096</v>
       </c>
       <c r="S2">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
       <c r="T2">
-        <v>0.4863343960516442</v>
+        <v>0.04833359961208697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +596,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.152977553281711</v>
+        <v>0.1847786666666667</v>
       </c>
       <c r="H3">
-        <v>0.152977553281711</v>
+        <v>0.5543360000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,31 +620,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.40562171561659</v>
+        <v>0.01969666666666666</v>
       </c>
       <c r="N3">
-        <v>1.40562171561659</v>
+        <v>0.05909</v>
       </c>
       <c r="O3">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="P3">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="Q3">
-        <v>0.2150285708946669</v>
+        <v>0.003639523804444444</v>
       </c>
       <c r="R3">
-        <v>0.2150285708946669</v>
+        <v>0.03275571424</v>
       </c>
       <c r="S3">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
       <c r="T3">
-        <v>0.3023726442383592</v>
+        <v>0.002752375198719253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +658,241 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>1.828140666666667</v>
+      </c>
+      <c r="N4">
+        <v>5.484422</v>
+      </c>
+      <c r="O4">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="P4">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="Q4">
+        <v>0.3378013948657778</v>
+      </c>
+      <c r="R4">
+        <v>3.040212553792001</v>
+      </c>
+      <c r="S4">
+        <v>0.2554609424963656</v>
+      </c>
+      <c r="T4">
+        <v>0.2554609424963656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.152977553281711</v>
-      </c>
-      <c r="H4">
-        <v>0.152977553281711</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.982225006740855</v>
-      </c>
-      <c r="N4">
-        <v>0.982225006740855</v>
-      </c>
-      <c r="O4">
-        <v>0.2112929597099966</v>
-      </c>
-      <c r="P4">
-        <v>0.2112929597099966</v>
-      </c>
-      <c r="Q4">
-        <v>0.1502583783033281</v>
-      </c>
-      <c r="R4">
-        <v>0.1502583783033281</v>
-      </c>
-      <c r="S4">
-        <v>0.2112929597099966</v>
-      </c>
-      <c r="T4">
-        <v>0.2112929597099966</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.335960333333334</v>
+      </c>
+      <c r="N5">
+        <v>7.007881000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="P5">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="Q5">
+        <v>0.4316356357795557</v>
+      </c>
+      <c r="R5">
+        <v>3.884720722016001</v>
+      </c>
+      <c r="S5">
+        <v>0.3264227087489572</v>
+      </c>
+      <c r="T5">
+        <v>0.3264227087489572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.445826333333333</v>
+      </c>
+      <c r="N6">
+        <v>4.337479</v>
+      </c>
+      <c r="O6">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="P6">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="Q6">
+        <v>0.2671578621048889</v>
+      </c>
+      <c r="R6">
+        <v>2.404420758944</v>
+      </c>
+      <c r="S6">
+        <v>0.2020370557550447</v>
+      </c>
+      <c r="T6">
+        <v>0.2020370557550447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.180732333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.542197</v>
+      </c>
+      <c r="O7">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="P7">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="Q7">
+        <v>0.2181741462435556</v>
+      </c>
+      <c r="R7">
+        <v>1.963567316192</v>
+      </c>
+      <c r="S7">
+        <v>0.1649933181888262</v>
+      </c>
+      <c r="T7">
+        <v>0.1649933181888262</v>
       </c>
     </row>
   </sheetData>
